--- a/biology/Médecine/Lionel_Guedj/Lionel_Guedj.xlsx
+++ b/biology/Médecine/Lionel_Guedj/Lionel_Guedj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lionel Guedj est un ancien dentiste installé entre 2005 et 2012 à Saint-Antoine, dans les quartiers pauvres de Marseille, lourdement condamné en 2023 pour avoir mutilé ses patients.
 </t>
@@ -511,10 +523,12 @@
           <t>Mutilations de patients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est poursuivi par 450 anciens patients pour « mutilations » dentaires[1], mis en examen en novembre 2012[2], renvoyé en novembre 2019, ainsi que son père, Carnot Guedj, qui l’épaulait au cabinet, devant le tribunal correctionnel pour des « violences volontaires commises entre 2006 et 2012, ayant entraîné des mutilations, à savoir le délabrement, la mortification ou l’extraction de dents sans justification médicale » sur des centaines de patients[1]. Il est jugé en première instance en 2022, puis en appel en 2023[3]. L’avocat général requiert alors des peines similaires à celles prononcées en première instance[4].  Les victimes seront indemnisées à hauteur de plus d'un million d'euros[3].
-La cour d’appel d’Aix-en-Provence a confirmé, vendredi 20 octobre 2023, la condamnation de Lionel Guedj à 8 ans de prison, ainsi que les 5 ans infligés à son père  Jean-Claude, dit « Carnot » Guedj[5]. Elle a également confirmé la confiscation de ses biens, pour une valeur d’un peu plus de 2,2 millions d’euros.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est poursuivi par 450 anciens patients pour « mutilations » dentaires, mis en examen en novembre 2012, renvoyé en novembre 2019, ainsi que son père, Carnot Guedj, qui l’épaulait au cabinet, devant le tribunal correctionnel pour des « violences volontaires commises entre 2006 et 2012, ayant entraîné des mutilations, à savoir le délabrement, la mortification ou l’extraction de dents sans justification médicale » sur des centaines de patients. Il est jugé en première instance en 2022, puis en appel en 2023. L’avocat général requiert alors des peines similaires à celles prononcées en première instance.  Les victimes seront indemnisées à hauteur de plus d'un million d'euros.
+La cour d’appel d’Aix-en-Provence a confirmé, vendredi 20 octobre 2023, la condamnation de Lionel Guedj à 8 ans de prison, ainsi que les 5 ans infligés à son père  Jean-Claude, dit « Carnot » Guedj. Elle a également confirmé la confiscation de ses biens, pour une valeur d’un peu plus de 2,2 millions d’euros.
 </t>
         </is>
       </c>
